--- a/Year 3/Parallel and Distributed Programming/Laboratory 2/Java/Laboratory 2 Java.xlsx
+++ b/Year 3/Parallel and Distributed Programming/Laboratory 2/Java/Laboratory 2 Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\University\Year 3\Parallel and Distributed Programming\Laboratory 2\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7520B-57A9-4A39-81E8-6B1F4A479A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC1BF6-B44B-4AC4-8952-69D14C50BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,13 +75,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,40 +279,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.14099</c:v>
+                  <c:v>0.15081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.63652</c:v>
+                  <c:v>3.7353399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.368929999999999</c:v>
+                  <c:v>22.423279999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.41366</c:v>
+                  <c:v>32.309730000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.343250000000001</c:v>
+                  <c:v>34.268009999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.10746</c:v>
+                  <c:v>39.487520000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.188939999999999</c:v>
+                  <c:v>35.583829999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1459.0760499999999</c:v>
+                  <c:v>1597.2851700000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>889.89796000000001</c:v>
+                  <c:v>771.84929999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>534.48316999999997</c:v>
+                  <c:v>424.05291999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355.40911999999997</c:v>
+                  <c:v>268.17986999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>324.61948999999998</c:v>
+                  <c:v>237.36143000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,8 +1049,8 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -1348,7 +1358,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,125 +1379,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.14099</v>
+      <c r="C2" s="2">
+        <v>0.15081</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2.63652</v>
+      <c r="C3" s="2">
+        <v>3.7353399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>20.368929999999999</v>
+      <c r="C4" s="2">
+        <v>22.423279999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>22.41366</v>
+      <c r="C5" s="2">
+        <v>32.309730000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>22.343250000000001</v>
+      <c r="C6" s="2">
+        <v>34.268009999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>28.10746</v>
+      <c r="C7" s="2">
+        <v>39.487520000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>29.188939999999999</v>
+      <c r="C8" s="2">
+        <v>35.583829999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1459.0760499999999</v>
+      <c r="C9" s="2">
+        <v>1597.2851700000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>889.89796000000001</v>
+      <c r="C10" s="2">
+        <v>771.84929999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>534.48316999999997</v>
+      <c r="C11" s="2">
+        <v>424.05291999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>355.40911999999997</v>
+      <c r="C12" s="2">
+        <v>268.17986999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>324.61948999999998</v>
+      <c r="C13" s="2">
+        <v>237.36143000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
